--- a/Thesis_code_overview.xlsx
+++ b/Thesis_code_overview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\Julia projects\ICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\Julia projects\ICS\package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8D558A-20C1-46DC-B010-5008D4147115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A607EFF-B7E6-45D4-8B78-C60A60E8FCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D99E76B-B39A-4457-82D8-AD933D1F688E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="287">
   <si>
     <t>component_selection.jl</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>bonnett_seier()</t>
-  </si>
-  <si>
-    <t>beta_plot.jl</t>
   </si>
   <si>
     <t>SYM_EIG()</t>
@@ -1377,7 +1374,7 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,52 +1398,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>92</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>93</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>94</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>95</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>96</v>
-      </c>
-      <c r="I5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
         <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -1455,10 +1452,10 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
         <v>101</v>
-      </c>
-      <c r="I7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1466,13 +1463,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
         <v>103</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -1481,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1489,81 +1483,81 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
         <v>106</v>
       </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>107</v>
-      </c>
-      <c r="I9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" t="s">
         <v>109</v>
-      </c>
-      <c r="I10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" t="s">
         <v>103</v>
       </c>
-      <c r="F20" t="s">
+      <c r="J20" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" t="s">
-        <v>107</v>
       </c>
       <c r="K20" t="s">
         <v>24</v>
@@ -1578,62 +1572,62 @@
         <v>3</v>
       </c>
       <c r="O20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
         <v>118</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
         <v>119</v>
       </c>
-      <c r="C22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" t="s">
         <v>120</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>118</v>
       </c>
-      <c r="F22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>121</v>
       </c>
-      <c r="H22" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>122</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>123</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>124</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>125</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>126</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>127</v>
-      </c>
-      <c r="O22" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1651,28 +1645,28 @@
         <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="N23" t="s">
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1689,68 +1683,68 @@
         <v>13</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="N24" t="s">
         <v>140</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>141</v>
-      </c>
-      <c r="O24" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" t="s">
         <v>143</v>
-      </c>
-      <c r="C25" t="s">
-        <v>144</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="N25" t="s">
         <v>147</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>148</v>
-      </c>
-      <c r="O25" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
         <v>150</v>
-      </c>
-      <c r="B26" t="s">
-        <v>151</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -1759,29 +1753,29 @@
         <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G26" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" t="s">
         <v>153</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>154</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>155</v>
-      </c>
-      <c r="K26" t="s">
-        <v>156</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26" t="s">
         <v>157</v>
-      </c>
-      <c r="O26" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1789,7 +1783,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -1801,637 +1795,637 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" t="s">
         <v>161</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" t="s">
         <v>163</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>164</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>165</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>166</v>
-      </c>
-      <c r="O27" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
         <v>169</v>
       </c>
-      <c r="E28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" t="s">
         <v>172</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" t="s">
         <v>174</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="N28" t="s">
         <v>176</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>177</v>
-      </c>
-      <c r="O28" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" t="s">
         <v>35</v>
       </c>
-      <c r="E29" t="s">
-        <v>179</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="I29" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="J29" s="5"/>
       <c r="L29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M29" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="O29" t="s">
         <v>183</v>
-      </c>
-      <c r="O29" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" t="s">
         <v>185</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
         <v>187</v>
       </c>
-      <c r="E30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s">
-        <v>188</v>
-      </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" t="s">
         <v>189</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="N30" t="s">
         <v>191</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>192</v>
-      </c>
-      <c r="O30" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" t="s">
+        <v>194</v>
+      </c>
+      <c r="O31" t="s">
         <v>195</v>
-      </c>
-      <c r="O31" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
         <v>197</v>
       </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>198</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" t="s">
         <v>201</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>202</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>203</v>
-      </c>
-      <c r="N32" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" t="s">
         <v>205</v>
       </c>
-      <c r="E33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="I33" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" t="s">
         <v>208</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="N33" t="s">
         <v>210</v>
-      </c>
-      <c r="N33" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
         <v>212</v>
       </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="I34" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="M34" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" t="s">
         <v>219</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="L35" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="N35" t="s">
         <v>222</v>
-      </c>
-      <c r="N35" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" t="s">
+        <v>153</v>
+      </c>
+      <c r="M36" t="s">
+        <v>153</v>
+      </c>
+      <c r="N36" t="s">
         <v>225</v>
-      </c>
-      <c r="E36" t="s">
-        <v>69</v>
-      </c>
-      <c r="K36" t="s">
-        <v>154</v>
-      </c>
-      <c r="M36" t="s">
-        <v>154</v>
-      </c>
-      <c r="N36" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" t="s">
         <v>228</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
+        <v>153</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I37" t="s">
-        <v>154</v>
-      </c>
-      <c r="K37" s="5" t="s">
+      <c r="L37" t="s">
         <v>230</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="N37" t="s">
         <v>232</v>
-      </c>
-      <c r="N37" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="5" t="s">
+      <c r="K38" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="L38" t="s">
         <v>236</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="N38" t="s">
         <v>238</v>
-      </c>
-      <c r="N38" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
         <v>240</v>
       </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E39" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="5" t="s">
+      <c r="K39" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="L39" t="s">
         <v>244</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="N39" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
         <v>248</v>
       </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F40" t="s">
-        <v>48</v>
-      </c>
-      <c r="K40" s="5" t="s">
+      <c r="N40" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" t="s">
         <v>253</v>
       </c>
-      <c r="G41" t="s">
+      <c r="K41" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="L41" t="s">
         <v>255</v>
-      </c>
-      <c r="L41" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" t="s">
         <v>257</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" t="s">
         <v>259</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="L42" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="E43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="L43" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C44" t="s">
-        <v>256</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="L44" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="F45" t="s">
+        <v>81</v>
+      </c>
+      <c r="L45" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="F45" t="s">
-        <v>82</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="F47" t="s">
         <v>277</v>
       </c>
-      <c r="F47" t="s">
+      <c r="L47" t="s">
         <v>278</v>
-      </c>
-      <c r="L47" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="F52" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
